--- a/Data/New Inventory.xlsx
+++ b/Data/New Inventory.xlsx
@@ -686,7 +686,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -855,10 +855,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1188,7 +1188,7 @@
     <col min="3" max="3" style="13" width="14.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>7352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>9064</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>6276</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>888</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>834</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="5" t="s">
         <v>14</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>408</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>618</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="5" t="s">
         <v>19</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="5" t="s">
         <v>20</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>792</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="5" t="s">
         <v>22</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>852</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="5" t="s">
         <v>23</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="5" t="s">
         <v>39</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>4228</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="5" t="s">
         <v>40</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="5" t="s">
         <v>14</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="5" t="s">
         <v>29</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>786</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="5" t="s">
         <v>15</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="5" t="s">
         <v>16</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="5" t="s">
         <v>30</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="5" t="s">
         <v>31</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="5" t="s">
         <v>17</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="5" t="s">
         <v>41</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="5" t="s">
         <v>32</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="5" t="s">
         <v>42</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="5" t="s">
         <v>33</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="5" t="s">
         <v>34</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>498</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="5" t="s">
         <v>18</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="5" t="s">
         <v>43</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="5" t="s">
         <v>19</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="5" t="s">
         <v>20</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="5" t="s">
         <v>44</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="5" t="s">
         <v>35</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="5" t="s">
         <v>21</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="5" t="s">
         <v>22</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="5" t="s">
         <v>45</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="5" t="s">
         <v>37</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="5" t="s">
         <v>38</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="5" t="s">
         <v>23</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>484</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="5" t="s">
         <v>39</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="5" t="s">
         <v>46</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>992</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="5" t="s">
         <v>24</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="5" t="s">
         <v>40</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="5" t="s">
         <v>47</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="5" t="s">
         <v>48</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
       <c r="A77" s="5" t="s">
         <v>49</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="5" t="s">
         <v>50</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>628</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="5" t="s">
         <v>51</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="5" t="s">
         <v>52</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="5" t="s">
         <v>54</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="5" t="s">
         <v>55</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>912</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
       <c r="A84" s="5" t="s">
         <v>56</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
       <c r="A85" s="5" t="s">
         <v>57</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
       <c r="A86" s="5" t="s">
         <v>58</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>792</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
       <c r="A87" s="5" t="s">
         <v>59</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
       <c r="A88" s="5" t="s">
         <v>60</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
       <c r="A89" s="5" t="s">
         <v>61</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="5" t="s">
         <v>62</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>592</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="5" t="s">
         <v>63</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="5" t="s">
         <v>64</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="5" t="s">
         <v>65</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>760</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="5" t="s">
         <v>66</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
       <c r="A95" s="5" t="s">
         <v>67</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
       <c r="A96" s="5" t="s">
         <v>68</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
       <c r="A97" s="5" t="s">
         <v>69</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
       <c r="A98" s="5" t="s">
         <v>70</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>928</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
       <c r="A99" s="5" t="s">
         <v>71</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>832</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
       <c r="A100" s="5" t="s">
         <v>72</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
       <c r="A101" s="5" t="s">
         <v>73</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
       <c r="A102" s="5" t="s">
         <v>74</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
       <c r="A103" s="5" t="s">
         <v>75</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
       <c r="A104" s="5" t="s">
         <v>76</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
       <c r="A105" s="5" t="s">
         <v>77</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
       <c r="A106" s="5" t="s">
         <v>78</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
       <c r="A107" s="5" t="s">
         <v>79</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>892</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
       <c r="A108" s="5" t="s">
         <v>80</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
       <c r="A109" s="5" t="s">
         <v>81</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
       <c r="A110" s="5" t="s">
         <v>82</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
       <c r="A111" s="5" t="s">
         <v>83</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
       <c r="A112" s="5" t="s">
         <v>84</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>868</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
       <c r="A113" s="5" t="s">
         <v>85</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>716</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
       <c r="A114" s="5" t="s">
         <v>86</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>472</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
       <c r="A115" s="5" t="s">
         <v>87</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
       <c r="A116" s="5" t="s">
         <v>88</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>23580</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
       <c r="A117" s="5" t="s">
         <v>89</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>19980</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
       <c r="A118" s="5" t="s">
         <v>90</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
       <c r="A119" s="5" t="s">
         <v>91</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
       <c r="A120" s="5" t="s">
         <v>92</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
       <c r="A121" s="5" t="s">
         <v>93</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
       <c r="A122" s="5" t="s">
         <v>94</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
       <c r="A123" s="5" t="s">
         <v>95</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
       <c r="A124" s="5" t="s">
         <v>96</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
       <c r="A126" s="5" t="s">
         <v>90</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
       <c r="A127" s="5" t="s">
         <v>8</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
       <c r="A128" s="5" t="s">
         <v>98</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
       <c r="A129" s="5" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
       <c r="A130" s="5" t="s">
         <v>99</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="5" t="s">
         <v>100</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="5" t="s">
         <v>9</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="5" t="s">
         <v>13</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
       <c r="A136" s="5" t="s">
         <v>25</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="5" t="s">
         <v>101</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
       <c r="A138" s="5" t="s">
         <v>102</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="5" t="s">
         <v>103</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>760</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="5" t="s">
         <v>104</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="5" t="s">
         <v>105</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>916</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="5" t="s">
         <v>106</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="5" t="s">
         <v>107</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>4056</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="5" t="s">
         <v>108</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="5" t="s">
         <v>109</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
       <c r="A146" s="5" t="s">
         <v>110</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
       <c r="A147" s="5" t="s">
         <v>111</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
       <c r="A148" s="5" t="s">
         <v>112</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
       <c r="A149" s="5" t="s">
         <v>113</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
       <c r="A150" s="5" t="s">
         <v>114</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
       <c r="A151" s="5" t="s">
         <v>115</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
       <c r="A152" s="5" t="s">
         <v>116</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>852</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
       <c r="A153" s="5" t="s">
         <v>117</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
       <c r="A155" s="5" t="s">
         <v>119</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
       <c r="A156" s="5" t="s">
         <v>120</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
       <c r="A157" s="5" t="s">
         <v>121</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>4056</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
       <c r="A158" s="5" t="s">
         <v>122</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
       <c r="A159" s="5" t="s">
         <v>123</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
       <c r="A160" s="5" t="s">
         <v>124</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
       <c r="A161" s="5" t="s">
         <v>125</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
       <c r="A162" s="5" t="s">
         <v>126</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
       <c r="A163" s="5" t="s">
         <v>127</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
       <c r="A164" s="5" t="s">
         <v>128</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
       <c r="A165" s="5" t="s">
         <v>129</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>872</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
       <c r="A166" s="5" t="s">
         <v>130</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>780</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
       <c r="A167" s="5" t="s">
         <v>131</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
       <c r="A168" s="5" t="s">
         <v>132</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
       <c r="A169" s="5" t="s">
         <v>133</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
       <c r="A170" s="5" t="s">
         <v>134</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
       <c r="A171" s="5" t="s">
         <v>135</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
       <c r="A172" s="5" t="s">
         <v>136</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>648</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
       <c r="A173" s="5" t="s">
         <v>137</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
       <c r="A174" s="5" t="s">
         <v>138</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
       <c r="A175" s="5" t="s">
         <v>139</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
       <c r="A176" s="5" t="s">
         <v>140</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
       <c r="A177" s="5" t="s">
         <v>141</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
       <c r="A178" s="5" t="s">
         <v>142</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
       <c r="A179" s="5" t="s">
         <v>143</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
       <c r="A180" s="5" t="s">
         <v>144</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
       <c r="A181" s="5" t="s">
         <v>145</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>644</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
       <c r="A182" s="5" t="s">
         <v>146</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
       <c r="A183" s="5" t="s">
         <v>147</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
       <c r="A184" s="5" t="s">
         <v>148</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
       <c r="A185" s="5" t="s">
         <v>149</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
       <c r="A186" s="5" t="s">
         <v>150</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
       <c r="A187" s="5" t="s">
         <v>151</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
       <c r="A188" s="5" t="s">
         <v>152</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
       <c r="A189" s="5" t="s">
         <v>153</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
       <c r="A190" s="5" t="s">
         <v>154</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
       <c r="A191" s="5" t="s">
         <v>155</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
       <c r="A192" s="5" t="s">
         <v>156</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
       <c r="A193" s="5" t="s">
         <v>157</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
       <c r="A194" s="5" t="s">
         <v>47</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
       <c r="A195" s="5" t="s">
         <v>48</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
       <c r="A196" s="5" t="s">
         <v>49</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
       <c r="A197" s="5" t="s">
         <v>158</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
       <c r="A198" s="5" t="s">
         <v>50</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>944</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
       <c r="A199" s="5" t="s">
         <v>159</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
       <c r="A200" s="5" t="s">
         <v>51</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>788</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
       <c r="A201" s="5" t="s">
         <v>52</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5">
       <c r="A202" s="5" t="s">
         <v>53</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
       <c r="A203" s="5" t="s">
         <v>54</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>788</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
       <c r="A204" s="5" t="s">
         <v>55</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
       <c r="A205" s="5" t="s">
         <v>56</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
       <c r="A206" s="5" t="s">
         <v>57</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
       <c r="A207" s="5" t="s">
         <v>58</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
       <c r="A208" s="5" t="s">
         <v>59</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>816</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
       <c r="A209" s="5" t="s">
         <v>60</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
       <c r="A210" s="5" t="s">
         <v>61</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5">
       <c r="A211" s="5" t="s">
         <v>62</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>888</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5">
       <c r="A212" s="5" t="s">
         <v>63</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>816</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5">
       <c r="A213" s="5" t="s">
         <v>64</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
       <c r="A214" s="5" t="s">
         <v>65</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
       <c r="A215" s="5" t="s">
         <v>66</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
       <c r="A216" s="5" t="s">
         <v>67</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>788</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
       <c r="A217" s="5" t="s">
         <v>68</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
       <c r="A218" s="5" t="s">
         <v>69</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
       <c r="A219" s="5" t="s">
         <v>70</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
       <c r="A220" s="5" t="s">
         <v>71</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5">
       <c r="A221" s="5" t="s">
         <v>72</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5">
       <c r="A222" s="5" t="s">
         <v>73</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5">
       <c r="A223" s="5" t="s">
         <v>74</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>996</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5">
       <c r="A224" s="5" t="s">
         <v>75</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5">
       <c r="A225" s="5" t="s">
         <v>76</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5">
       <c r="A226" s="5" t="s">
         <v>77</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5">
       <c r="A227" s="5" t="s">
         <v>78</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
       <c r="A228" s="5" t="s">
         <v>79</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5">
       <c r="A229" s="5" t="s">
         <v>80</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
       <c r="A230" s="5" t="s">
         <v>81</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>996</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5">
       <c r="A231" s="5" t="s">
         <v>82</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5">
       <c r="A232" s="5" t="s">
         <v>83</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5">
       <c r="A233" s="5" t="s">
         <v>84</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5">
       <c r="A234" s="5" t="s">
         <v>85</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5">
       <c r="A235" s="5" t="s">
         <v>86</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>708</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5">
       <c r="A236" s="5" t="s">
         <v>87</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5">
       <c r="A237" s="5" t="s">
         <v>160</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5">
       <c r="A238" s="5" t="s">
         <v>161</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5">
       <c r="A239" s="5" t="s">
         <v>162</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>776</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5">
       <c r="A240" s="5" t="s">
         <v>163</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5">
       <c r="A241" s="5" t="s">
         <v>164</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5">
       <c r="A242" s="5" t="s">
         <v>165</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>152</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5">
       <c r="A243" s="5" t="s">
         <v>41</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5">
       <c r="A244" s="5" t="s">
         <v>43</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>6732</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5">
       <c r="A245" s="5" t="s">
         <v>10</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5">
       <c r="A246" s="5" t="s">
         <v>11</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5">
       <c r="A247" s="5" t="s">
         <v>12</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5">
       <c r="A248" s="5" t="s">
         <v>13</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5">
       <c r="A249" s="5" t="s">
         <v>166</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5">
       <c r="A250" s="5" t="s">
         <v>167</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5">
       <c r="A251" s="5" t="s">
         <v>168</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5">
       <c r="A252" s="5" t="s">
         <v>169</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5">
       <c r="A253" s="5" t="s">
         <v>170</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5">
       <c r="A254" s="5" t="s">
         <v>14</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5">
       <c r="A255" s="5" t="s">
         <v>29</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>786</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5">
       <c r="A256" s="5" t="s">
         <v>15</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5">
       <c r="A257" s="5" t="s">
         <v>16</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5">
       <c r="A258" s="5" t="s">
         <v>30</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5">
       <c r="A259" s="5" t="s">
         <v>31</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5">
       <c r="A260" s="5" t="s">
         <v>17</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5">
       <c r="A261" s="5" t="s">
         <v>41</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5">
       <c r="A262" s="5" t="s">
         <v>32</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5">
       <c r="A263" s="5" t="s">
         <v>42</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5">
       <c r="A264" s="5" t="s">
         <v>33</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5">
       <c r="A265" s="5" t="s">
         <v>34</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>498</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5">
       <c r="A266" s="5" t="s">
         <v>18</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5">
       <c r="A267" s="5" t="s">
         <v>43</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5">
       <c r="A268" s="5" t="s">
         <v>19</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5">
       <c r="A269" s="5" t="s">
         <v>20</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5">
       <c r="A270" s="5" t="s">
         <v>44</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5">
       <c r="A271" s="5" t="s">
         <v>35</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5">
       <c r="A272" s="5" t="s">
         <v>36</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5">
       <c r="A273" s="5" t="s">
         <v>21</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5">
       <c r="A274" s="5" t="s">
         <v>22</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5">
       <c r="A275" s="5" t="s">
         <v>45</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5">
       <c r="A276" s="5" t="s">
         <v>37</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5">
       <c r="A277" s="5" t="s">
         <v>38</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5">
       <c r="A278" s="5" t="s">
         <v>23</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>484</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5">
       <c r="A279" s="5" t="s">
         <v>39</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5">
       <c r="A280" s="5" t="s">
         <v>46</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>992</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5">
       <c r="A281" s="5" t="s">
         <v>24</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5">
       <c r="A282" s="5" t="s">
         <v>40</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5">
       <c r="A283" s="5" t="s">
         <v>91</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5">
       <c r="A284" s="5" t="s">
         <v>94</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5">
       <c r="A285" s="5" t="s">
         <v>171</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5">
       <c r="A286" s="5" t="s">
         <v>95</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5">
       <c r="A287" s="5" t="s">
         <v>96</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5">
       <c r="A288" s="5" t="s">
         <v>160</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>964</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5">
       <c r="A289" s="5" t="s">
         <v>161</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5">
       <c r="A290" s="5" t="s">
         <v>162</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5">
       <c r="A291" s="5" t="s">
         <v>172</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5">
       <c r="A292" s="5" t="s">
         <v>173</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5">
       <c r="A293" s="5" t="s">
         <v>25</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>196</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5">
       <c r="A294" s="5" t="s">
         <v>26</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5">
       <c r="A295" s="5" t="s">
         <v>27</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>276</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5">
       <c r="A296" s="5" t="s">
         <v>174</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>276</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5">
       <c r="A297" s="5" t="s">
         <v>163</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5">
       <c r="A298" s="5" t="s">
         <v>164</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5">
       <c r="A299" s="5" t="s">
         <v>28</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5">
       <c r="A300" s="5" t="s">
         <v>165</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5">
       <c r="A301" s="5" t="s">
         <v>160</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5">
       <c r="A302" s="5" t="s">
         <v>161</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5">
       <c r="A303" s="5" t="s">
         <v>162</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5">
       <c r="A304" s="5" t="s">
         <v>173</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5">
       <c r="A305" s="5" t="s">
         <v>25</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5">
       <c r="A306" s="5" t="s">
         <v>26</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5">
       <c r="A307" s="5" t="s">
         <v>27</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5">
       <c r="A308" s="5" t="s">
         <v>174</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5">
       <c r="A309" s="5" t="s">
         <v>163</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5">
       <c r="A310" s="5" t="s">
         <v>164</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5">
       <c r="A311" s="5" t="s">
         <v>28</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5">
       <c r="A312" s="5" t="s">
         <v>165</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5">
       <c r="A313" s="5" t="s">
         <v>9</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5">
       <c r="A314" s="5" t="s">
         <v>10</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>15420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5">
       <c r="A315" s="5" t="s">
         <v>11</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>7472</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5">
       <c r="A316" s="5" t="s">
         <v>12</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>10316</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5">
       <c r="A317" s="5" t="s">
         <v>13</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5">
       <c r="A318" s="5" t="s">
         <v>47</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5">
       <c r="A319" s="5" t="s">
         <v>48</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5">
       <c r="A320" s="5" t="s">
         <v>49</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5">
       <c r="A321" s="5" t="s">
         <v>158</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5">
       <c r="A322" s="5" t="s">
         <v>50</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5">
       <c r="A323" s="5" t="s">
         <v>159</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>768</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5">
       <c r="A324" s="5" t="s">
         <v>51</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5">
       <c r="A325" s="5" t="s">
         <v>52</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5">
       <c r="A326" s="5" t="s">
         <v>53</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5">
       <c r="A327" s="5" t="s">
         <v>54</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5">
       <c r="A328" s="5" t="s">
         <v>55</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5">
       <c r="A329" s="5" t="s">
         <v>56</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5">
       <c r="A330" s="5" t="s">
         <v>57</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5">
       <c r="A331" s="5" t="s">
         <v>58</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5">
       <c r="A332" s="5" t="s">
         <v>59</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5">
       <c r="A333" s="5" t="s">
         <v>60</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5">
       <c r="A334" s="5" t="s">
         <v>61</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5">
       <c r="A335" s="5" t="s">
         <v>62</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5">
       <c r="A336" s="5" t="s">
         <v>63</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5">
       <c r="A337" s="5" t="s">
         <v>64</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5">
       <c r="A338" s="5" t="s">
         <v>65</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5">
       <c r="A339" s="5" t="s">
         <v>66</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5">
       <c r="A340" s="5" t="s">
         <v>67</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5">
       <c r="A341" s="5" t="s">
         <v>68</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>768</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5">
       <c r="A342" s="5" t="s">
         <v>69</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5">
       <c r="A343" s="5" t="s">
         <v>70</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5">
       <c r="A344" s="5" t="s">
         <v>71</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5">
       <c r="A345" s="5" t="s">
         <v>72</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5">
       <c r="A346" s="5" t="s">
         <v>73</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5">
       <c r="A347" s="5" t="s">
         <v>74</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5">
       <c r="A348" s="5" t="s">
         <v>75</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>768</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5">
       <c r="A349" s="5" t="s">
         <v>76</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5">
       <c r="A350" s="5" t="s">
         <v>77</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5">
       <c r="A351" s="5" t="s">
         <v>78</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5">
       <c r="A352" s="5" t="s">
         <v>79</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5">
       <c r="A353" s="5" t="s">
         <v>80</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5">
       <c r="A354" s="5" t="s">
         <v>81</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5">
       <c r="A355" s="5" t="s">
         <v>82</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5">
       <c r="A356" s="5" t="s">
         <v>83</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5">
       <c r="A357" s="5" t="s">
         <v>84</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5">
       <c r="A358" s="5" t="s">
         <v>85</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5">
       <c r="A359" s="5" t="s">
         <v>86</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>944</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5">
       <c r="A360" s="5" t="s">
         <v>87</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5">
       <c r="A361" s="5" t="s">
         <v>166</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5">
       <c r="A362" s="5" t="s">
         <v>167</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5">
       <c r="A363" s="5" t="s">
         <v>168</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5">
       <c r="A364" s="5" t="s">
         <v>169</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5">
       <c r="A365" s="5" t="s">
         <v>98</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5">
       <c r="A366" s="5" t="s">
         <v>175</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5">
       <c r="A367" s="5" t="s">
         <v>176</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5">
       <c r="A368" s="5" t="s">
         <v>6</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5">
       <c r="A369" s="5" t="s">
         <v>177</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>316</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5">
       <c r="A370" s="5" t="s">
         <v>7</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>8816</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5">
       <c r="A371" s="5" t="s">
         <v>178</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5">
       <c r="A372" s="5" t="s">
         <v>179</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5">
       <c r="A373" s="5" t="s">
         <v>99</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5">
       <c r="A374" s="5" t="s">
         <v>180</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5">
       <c r="A375" s="5" t="s">
         <v>90</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5">
       <c r="A376" s="5" t="s">
         <v>181</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>16920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5">
       <c r="A377" s="5" t="s">
         <v>182</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>15840</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5">
       <c r="A378" s="5" t="s">
         <v>183</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>11880</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5">
       <c r="A379" s="5" t="s">
         <v>184</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5">
       <c r="A380" s="5" t="s">
         <v>185</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>9720</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5">
       <c r="A381" s="5" t="s">
         <v>186</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5">
       <c r="A382" s="5" t="s">
         <v>132</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5">
       <c r="A383" s="5" t="s">
         <v>133</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5">
       <c r="A384" s="5" t="s">
         <v>134</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>788</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5">
       <c r="A385" s="5" t="s">
         <v>135</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5">
       <c r="A386" s="5" t="s">
         <v>136</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5">
       <c r="A387" s="5" t="s">
         <v>137</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5">
       <c r="A388" s="5" t="s">
         <v>138</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>624</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5">
       <c r="A389" s="5" t="s">
         <v>140</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>972</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5">
       <c r="A390" s="5" t="s">
         <v>187</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5">
       <c r="A391" s="5" t="s">
         <v>142</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5">
       <c r="A392" s="5" t="s">
         <v>143</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>696</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5">
       <c r="A393" s="5" t="s">
         <v>188</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>684</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5">
       <c r="A394" s="5" t="s">
         <v>144</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5">
       <c r="A395" s="5" t="s">
         <v>145</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>628</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5">
       <c r="A396" s="5" t="s">
         <v>147</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5">
       <c r="A397" s="5" t="s">
         <v>149</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5">
       <c r="A398" s="5" t="s">
         <v>152</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>588</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5">
       <c r="A399" s="5" t="s">
         <v>189</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5">
       <c r="A400" s="5" t="s">
         <v>190</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>540</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5">
       <c r="A401" s="5" t="s">
         <v>191</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5">
       <c r="A402" s="5" t="s">
         <v>192</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5">
       <c r="A403" s="5" t="s">
         <v>193</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5">
       <c r="A404" s="5" t="s">
         <v>194</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>908</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5">
       <c r="A405" s="5" t="s">
         <v>166</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5">
       <c r="A406" s="5" t="s">
         <v>167</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5">
       <c r="A407" s="5" t="s">
         <v>168</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5">
       <c r="A408" s="5" t="s">
         <v>169</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5">
       <c r="A409" s="5" t="s">
         <v>90</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5">
       <c r="A410" s="5" t="s">
         <v>166</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5">
       <c r="A411" s="5" t="s">
         <v>168</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5">
       <c r="A412" s="5" t="s">
         <v>9</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5">
       <c r="A413" s="5" t="s">
         <v>10</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5">
       <c r="A414" s="5" t="s">
         <v>11</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5">
       <c r="A415" s="5" t="s">
         <v>12</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5">
       <c r="A416" s="5" t="s">
         <v>13</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5">
       <c r="A417" s="5" t="s">
         <v>166</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5">
       <c r="A418" s="5" t="s">
         <v>167</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5">
       <c r="A419" s="5" t="s">
         <v>168</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5">
       <c r="A420" s="5" t="s">
         <v>169</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5">
       <c r="A421" s="5" t="s">
         <v>90</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>7350</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5">
       <c r="A422" s="5" t="s">
         <v>132</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5">
       <c r="A423" s="5" t="s">
         <v>133</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5">
       <c r="A424" s="5" t="s">
         <v>134</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5">
       <c r="A425" s="5" t="s">
         <v>135</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5">
       <c r="A426" s="5" t="s">
         <v>136</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5">
       <c r="A427" s="5" t="s">
         <v>137</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5">
       <c r="A428" s="5" t="s">
         <v>138</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>4620</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5">
       <c r="A429" s="5" t="s">
         <v>139</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5">
       <c r="A430" s="5" t="s">
         <v>140</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>3612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5">
       <c r="A431" s="5" t="s">
         <v>141</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5">
       <c r="A432" s="5" t="s">
         <v>187</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5">
       <c r="A433" s="5" t="s">
         <v>142</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5">
       <c r="A434" s="5" t="s">
         <v>143</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5">
       <c r="A435" s="5" t="s">
         <v>188</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5">
       <c r="A436" s="5" t="s">
         <v>144</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5">
       <c r="A437" s="5" t="s">
         <v>145</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5">
       <c r="A438" s="5" t="s">
         <v>146</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5">
       <c r="A439" s="5" t="s">
         <v>147</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>5736</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5">
       <c r="A440" s="5" t="s">
         <v>148</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5">
       <c r="A441" s="5" t="s">
         <v>149</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5">
       <c r="A442" s="5" t="s">
         <v>150</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5">
       <c r="A443" s="5" t="s">
         <v>151</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5">
       <c r="A444" s="5" t="s">
         <v>152</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5">
       <c r="A445" s="5" t="s">
         <v>153</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5">
       <c r="A446" s="5" t="s">
         <v>189</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5">
       <c r="A447" s="5" t="s">
         <v>195</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5">
       <c r="A448" s="5" t="s">
         <v>190</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5">
       <c r="A449" s="5" t="s">
         <v>191</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5">
       <c r="A450" s="5" t="s">
         <v>192</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5">
       <c r="A451" s="5" t="s">
         <v>193</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5">
       <c r="A452" s="5" t="s">
         <v>194</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="19.5">
       <c r="A453" s="5" t="s">
         <v>154</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="19.5">
       <c r="A454" s="5" t="s">
         <v>155</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="19.5">
       <c r="A455" s="5" t="s">
         <v>156</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="19.5">
       <c r="A456" s="5" t="s">
         <v>196</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="19.5">
       <c r="A457" s="5" t="s">
         <v>157</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="19.5">
       <c r="A458" s="5" t="s">
         <v>197</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>18360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="19.5">
       <c r="A459" s="5" t="s">
         <v>198</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="19.5">
       <c r="A460" s="5" t="s">
         <v>101</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>6840</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="19.5">
       <c r="A461" s="5" t="s">
         <v>102</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="19.5">
       <c r="A462" s="5" t="s">
         <v>103</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>4948</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="19.5">
       <c r="A463" s="5" t="s">
         <v>104</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>6028</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="19.5">
       <c r="A464" s="5" t="s">
         <v>105</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="19.5">
       <c r="A465" s="5" t="s">
         <v>106</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="19.5">
       <c r="A466" s="5" t="s">
         <v>107</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>7648</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="19.5">
       <c r="A467" s="5" t="s">
         <v>108</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>6568</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="19.5">
       <c r="A468" s="5" t="s">
         <v>109</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="19.5">
       <c r="A469" s="5" t="s">
         <v>110</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>5488</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="19.5">
       <c r="A470" s="5" t="s">
         <v>111</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="19.5">
       <c r="A471" s="5" t="s">
         <v>112</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>6568</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="19.5">
       <c r="A472" s="5" t="s">
         <v>113</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="19.5">
       <c r="A473" s="5" t="s">
         <v>114</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>5488</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="19.5">
       <c r="A474" s="5" t="s">
         <v>115</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>5488</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="19.5">
       <c r="A475" s="5" t="s">
         <v>116</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>4948</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="19.5">
       <c r="A476" s="5" t="s">
         <v>117</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="19.5">
       <c r="A478" s="5" t="s">
         <v>119</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="19.5">
       <c r="A479" s="5" t="s">
         <v>120</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>5488</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="19.5">
       <c r="A480" s="5" t="s">
         <v>121</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>7648</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="19.5">
       <c r="A481" s="5" t="s">
         <v>122</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="19.5">
       <c r="A482" s="5" t="s">
         <v>123</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>7648</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="19.5">
       <c r="A483" s="5" t="s">
         <v>124</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="19.5">
       <c r="A484" s="5" t="s">
         <v>125</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>6568</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="19.5">
       <c r="A485" s="5" t="s">
         <v>126</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>5488</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="19.5">
       <c r="A486" s="5" t="s">
         <v>127</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>6028</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="19.5">
       <c r="A487" s="5" t="s">
         <v>128</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>6568</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="19.5">
       <c r="A488" s="5" t="s">
         <v>129</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>4948</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="19.5">
       <c r="A489" s="5" t="s">
         <v>130</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>4948</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="19.5">
       <c r="A490" s="5" t="s">
         <v>131</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>5488</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="19.5">
       <c r="A491" s="5" t="s">
         <v>14</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>4506</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="19.5">
       <c r="A492" s="5" t="s">
         <v>29</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="19.5">
       <c r="A493" s="5" t="s">
         <v>15</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>6066</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="19.5">
       <c r="A494" s="5" t="s">
         <v>16</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>4884</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="19.5">
       <c r="A495" s="5" t="s">
         <v>30</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="19.5">
       <c r="A496" s="5" t="s">
         <v>31</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="19.5">
       <c r="A497" s="5" t="s">
         <v>17</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>5274</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="19.5">
       <c r="A498" s="5" t="s">
         <v>170</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="19.5">
       <c r="A499" s="5" t="s">
         <v>42</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="19.5">
       <c r="A500" s="5" t="s">
         <v>33</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>5718</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="19.5">
       <c r="A501" s="5" t="s">
         <v>34</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="19.5">
       <c r="A502" s="5" t="s">
         <v>18</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>7134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="19.5">
       <c r="A503" s="5" t="s">
         <v>19</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="19.5">
       <c r="A504" s="5" t="s">
         <v>20</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="19.5">
       <c r="A505" s="5" t="s">
         <v>44</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="19.5">
       <c r="A506" s="5" t="s">
         <v>35</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="19.5">
       <c r="A507" s="5" t="s">
         <v>36</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="19.5">
       <c r="A508" s="5" t="s">
         <v>21</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>3798</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="19.5">
       <c r="A509" s="5" t="s">
         <v>22</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>4890</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="19.5">
       <c r="A510" s="5" t="s">
         <v>199</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="19.5">
       <c r="A511" s="5" t="s">
         <v>45</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>7608</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="19.5">
       <c r="A512" s="5" t="s">
         <v>37</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>5236</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="19.5">
       <c r="A513" s="5" t="s">
         <v>38</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="19.5">
       <c r="A514" s="5" t="s">
         <v>23</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>4276</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="19.5">
       <c r="A515" s="5" t="s">
         <v>39</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="19.5">
       <c r="A516" s="5" t="s">
         <v>24</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="19.5">
       <c r="A517" s="5" t="s">
         <v>40</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="19.5">
       <c r="A518" s="5" t="s">
         <v>14</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>312</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="19.5">
       <c r="A519" s="5" t="s">
         <v>29</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="19.5">
       <c r="A520" s="5" t="s">
         <v>15</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="19.5">
       <c r="A521" s="5" t="s">
         <v>16</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>402</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="19.5">
       <c r="A522" s="5" t="s">
         <v>30</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>744</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="19.5">
       <c r="A523" s="5" t="s">
         <v>31</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>354</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="19.5">
       <c r="A524" s="5" t="s">
         <v>17</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="19.5">
       <c r="A525" s="5" t="s">
         <v>42</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>552</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="19.5">
       <c r="A526" s="5" t="s">
         <v>33</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="19.5">
       <c r="A527" s="5" t="s">
         <v>34</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>426</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="19.5">
       <c r="A528" s="5" t="s">
         <v>18</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="19.5">
       <c r="A529" s="5" t="s">
         <v>19</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>832</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="19.5">
       <c r="A530" s="5" t="s">
         <v>20</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="19.5">
       <c r="A531" s="5" t="s">
         <v>35</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="19.5">
       <c r="A532" s="5" t="s">
         <v>36</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="19.5">
       <c r="A533" s="5" t="s">
         <v>21</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="19.5">
       <c r="A534" s="5" t="s">
         <v>22</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="19.5">
       <c r="A535" s="5" t="s">
         <v>199</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="19.5">
       <c r="A536" s="5" t="s">
         <v>45</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="19.5">
       <c r="A537" s="5" t="s">
         <v>38</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>628</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="19.5">
       <c r="A538" s="5" t="s">
         <v>23</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>752</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="19.5">
       <c r="A539" s="5" t="s">
         <v>39</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="19.5">
       <c r="A540" s="5" t="s">
         <v>24</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="19.5">
       <c r="A541" s="5" t="s">
         <v>40</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="19.5">
       <c r="A542" s="5" t="s">
         <v>34</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="19.5">
       <c r="A543" s="5" t="s">
         <v>18</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="19.5">
       <c r="A544" s="5" t="s">
         <v>8</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="19.5">
       <c r="A545" s="5" t="s">
         <v>98</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="19.5">
       <c r="A546" s="5" t="s">
         <v>7</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="19.5">
       <c r="A547" s="5" t="s">
         <v>179</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="19.5">
       <c r="A548" s="5" t="s">
         <v>99</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="19.5">
       <c r="A549" s="5" t="s">
         <v>100</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="19.5">
       <c r="A550" s="5" t="s">
         <v>161</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="19.5">
       <c r="A551" s="5" t="s">
         <v>162</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>560</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="19.5">
       <c r="A552" s="5" t="s">
         <v>163</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>312</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="19.5">
       <c r="A553" s="5" t="s">
         <v>165</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>316</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="19.5">
       <c r="A554" s="5" t="s">
         <v>53</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="19.5">
       <c r="A555" s="5" t="s">
         <v>66</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="19.5">
       <c r="A556" s="5" t="s">
         <v>77</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="19.5">
       <c r="A557" s="5" t="s">
         <v>78</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="19.5">
       <c r="A558" s="5" t="s">
         <v>82</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="19.5">
       <c r="A559" s="5" t="s">
         <v>83</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="19.5">
       <c r="A560" s="5" t="s">
         <v>3</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>728</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="19.5">
       <c r="A561" s="5" t="s">
         <v>200</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>632</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="19.5">
       <c r="A562" s="5" t="s">
         <v>98</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="19.5">
       <c r="A563" s="5" t="s">
         <v>175</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="19.5">
       <c r="A564" s="5" t="s">
         <v>201</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="19.5">
       <c r="A565" s="5" t="s">
         <v>4</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="19.5">
       <c r="A566" s="5" t="s">
         <v>5</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="19.5">
       <c r="A567" s="5" t="s">
         <v>176</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="19.5">
       <c r="A568" s="5" t="s">
         <v>6</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>5452</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="19.5">
       <c r="A569" s="5" t="s">
         <v>202</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>720</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="19.5">
       <c r="A570" s="5" t="s">
         <v>203</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>844</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="19.5">
       <c r="A571" s="5" t="s">
         <v>204</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="19.5">
       <c r="A572" s="5" t="s">
         <v>177</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="19.5">
       <c r="A573" s="5" t="s">
         <v>7</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="19.5">
       <c r="A574" s="5" t="s">
         <v>178</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="19.5">
       <c r="A575" s="5" t="s">
         <v>179</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="19.5">
       <c r="A576" s="5" t="s">
         <v>99</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>5292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="19.5">
       <c r="A577" s="5" t="s">
         <v>205</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="19.5">
       <c r="A578" s="5" t="s">
         <v>206</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>964</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="19.5">
       <c r="A579" s="5" t="s">
         <v>180</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="19.5">
       <c r="A580" s="5" t="s">
         <v>207</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="19.5">
       <c r="A581" s="5" t="s">
         <v>9</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="19.5">
       <c r="A582" s="5" t="s">
         <v>10</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="19.5">
       <c r="A583" s="5" t="s">
         <v>11</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="19.5">
       <c r="A584" s="5" t="s">
         <v>12</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>5436</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="19.5">
       <c r="A585" s="5" t="s">
         <v>13</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>5908</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="19.5">
       <c r="A586" s="5" t="s">
         <v>181</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>5988</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="19.5">
       <c r="A587" s="5" t="s">
         <v>182</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>5216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="19.5">
       <c r="A588" s="5" t="s">
         <v>183</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>5444</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="19.5">
       <c r="A589" s="5" t="s">
         <v>184</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="19.5">
       <c r="A590" s="5" t="s">
         <v>185</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="19.5">
       <c r="A591" s="5" t="s">
         <v>186</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="19.5">
       <c r="A592" s="5" t="s">
         <v>208</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="19.5">
       <c r="A593" s="5" t="s">
         <v>92</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="19.5">
       <c r="A594" s="5" t="s">
         <v>209</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>436</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="19.5">
       <c r="A595" s="5" t="s">
         <v>94</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>940</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="19.5">
       <c r="A596" s="5" t="s">
         <v>96</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="19.5">
       <c r="A597" s="5" t="s">
         <v>172</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="19.5">
       <c r="A598" s="5" t="s">
         <v>173</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>448</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="19.5">
       <c r="A599" s="5" t="s">
         <v>26</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="19.5">
       <c r="A600" s="5" t="s">
         <v>27</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="19.5">
       <c r="A601" s="5" t="s">
         <v>174</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="19.5">
       <c r="A602" s="5" t="s">
         <v>163</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="19.5">
       <c r="A603" s="5" t="s">
         <v>164</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="19.5">
       <c r="A604" s="5" t="s">
         <v>28</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="19.5">
       <c r="A605" s="5" t="s">
         <v>165</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="19.5">
       <c r="A606" s="5" t="s">
         <v>91</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>5980</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="19.5">
       <c r="A607" s="5" t="s">
         <v>208</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>6388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="19.5">
       <c r="A608" s="5" t="s">
         <v>92</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>10768</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="19.5">
       <c r="A609" s="5" t="s">
         <v>93</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>4624</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="19.5">
       <c r="A610" s="5" t="s">
         <v>209</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>4840</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="19.5">
       <c r="A611" s="5" t="s">
         <v>94</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>4532</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="19.5">
       <c r="A612" s="5" t="s">
         <v>171</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="19.5">
       <c r="A613" s="5" t="s">
         <v>95</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>6396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="19.5">
       <c r="A614" s="5" t="s">
         <v>96</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>6508</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="19.5">
       <c r="A615" s="5" t="s">
         <v>97</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="19.5">
       <c r="A616" s="5" t="s">
         <v>10</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="19.5">
       <c r="A617" s="5" t="s">
         <v>11</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="19.5">
       <c r="A618" s="5" t="s">
         <v>12</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="19.5">
       <c r="A619" s="5" t="s">
         <v>14</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>408</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="19.5">
       <c r="A620" s="5" t="s">
         <v>29</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="19.5">
       <c r="A621" s="5" t="s">
         <v>30</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="19.5">
       <c r="A622" s="5" t="s">
         <v>31</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="19.5">
       <c r="A623" s="5" t="s">
         <v>32</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="19.5">
       <c r="A624" s="5" t="s">
         <v>33</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="19.5">
       <c r="A625" s="5" t="s">
         <v>34</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>618</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="19.5">
       <c r="A626" s="5" t="s">
         <v>18</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="19.5">
       <c r="A627" s="5" t="s">
         <v>19</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="19.5">
       <c r="A628" s="5" t="s">
         <v>20</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>792</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="19.5">
       <c r="A629" s="5" t="s">
         <v>35</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="19.5">
       <c r="A630" s="5" t="s">
         <v>36</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="19.5">
       <c r="A631" s="5" t="s">
         <v>22</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="19.5">
       <c r="A632" s="5" t="s">
         <v>37</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="19.5">
       <c r="A633" s="5" t="s">
         <v>38</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>852</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="19.5">
       <c r="A634" s="5" t="s">
         <v>23</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="19.5">
       <c r="A635" s="5" t="s">
         <v>39</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>4228</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="19.5">
       <c r="A636" s="5" t="s">
         <v>40</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="19.5">
       <c r="A637" s="5" t="s">
         <v>8</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="19.5">
       <c r="A638" s="5" t="s">
         <v>200</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="19.5">
       <c r="A639" s="5" t="s">
         <v>175</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="19.5">
       <c r="A640" s="5" t="s">
         <v>201</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="19.5">
       <c r="A641" s="5" t="s">
         <v>4</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="19.5">
       <c r="A642" s="5" t="s">
         <v>5</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="19.5">
       <c r="A643" s="5" t="s">
         <v>176</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="19.5">
       <c r="A644" s="5" t="s">
         <v>6</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="19.5">
       <c r="A645" s="5" t="s">
         <v>203</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>980</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="19.5">
       <c r="A646" s="5" t="s">
         <v>177</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="19.5">
       <c r="A647" s="5" t="s">
         <v>7</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="19.5">
       <c r="A648" s="5" t="s">
         <v>99</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="19.5">
       <c r="A649" s="5" t="s">
         <v>205</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="19.5">
       <c r="A650" s="5" t="s">
         <v>180</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="19.5">
       <c r="A651" s="5" t="s">
         <v>100</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="19.5">
       <c r="A652" s="5" t="s">
         <v>207</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="19.5">
       <c r="A653" s="5" t="s">
         <v>181</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>5988</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="19.5">
       <c r="A654" s="5" t="s">
         <v>182</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>5216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="19.5">
       <c r="A655" s="5" t="s">
         <v>183</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>5444</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="19.5">
       <c r="A656" s="5" t="s">
         <v>184</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="19.5">
       <c r="A657" s="5" t="s">
         <v>185</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="19.5">
       <c r="A658" s="5" t="s">
         <v>186</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="19.5">
       <c r="A659" s="5" t="s">
         <v>8</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="19.5">
       <c r="A660" s="5" t="s">
         <v>8</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="19.5">
       <c r="A661" s="5" t="s">
         <v>3</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="19.5">
       <c r="A662" s="5" t="s">
         <v>200</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="19.5">
       <c r="A663" s="5" t="s">
         <v>98</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="19.5">
       <c r="A664" s="5" t="s">
         <v>175</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="19.5">
       <c r="A665" s="5" t="s">
         <v>4</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="19.5">
       <c r="A666" s="5" t="s">
         <v>5</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="19.5">
       <c r="A667" s="5" t="s">
         <v>176</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="19.5">
       <c r="A668" s="5" t="s">
         <v>6</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="19.5">
       <c r="A669" s="5" t="s">
         <v>202</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="19.5">
       <c r="A670" s="5" t="s">
         <v>203</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="19.5">
       <c r="A671" s="5" t="s">
         <v>177</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="19.5">
       <c r="A672" s="5" t="s">
         <v>7</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="19.5">
       <c r="A673" s="5" t="s">
         <v>178</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="19.5">
       <c r="A674" s="5" t="s">
         <v>179</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="19.5">
       <c r="A675" s="5" t="s">
         <v>99</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="19.5">
       <c r="A676" s="5" t="s">
         <v>180</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="19.5">
       <c r="A677" s="5" t="s">
         <v>100</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="19.5">
       <c r="A678" s="5" t="s">
         <v>100</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="19.5">
       <c r="A679" s="5" t="s">
         <v>8</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="19.5">
       <c r="A680" s="5" t="s">
         <v>3</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="19.5">
       <c r="A681" s="5" t="s">
         <v>200</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="19.5">
       <c r="A682" s="5" t="s">
         <v>98</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="19.5">
       <c r="A683" s="5" t="s">
         <v>175</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="19.5">
       <c r="A684" s="5" t="s">
         <v>201</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="19.5">
       <c r="A685" s="5" t="s">
         <v>4</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="19.5">
       <c r="A686" s="5" t="s">
         <v>5</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="19.5">
       <c r="A687" s="5" t="s">
         <v>176</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="19.5">
       <c r="A688" s="5" t="s">
         <v>6</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="19.5">
       <c r="A689" s="5" t="s">
         <v>202</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="19.5">
       <c r="A690" s="5" t="s">
         <v>203</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="19.5">
       <c r="A691" s="5" t="s">
         <v>204</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="19.5">
       <c r="A692" s="5" t="s">
         <v>177</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="19.5">
       <c r="A693" s="5" t="s">
         <v>7</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>5812</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="19.5">
       <c r="A694" s="5" t="s">
         <v>178</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="19.5">
       <c r="A695" s="5" t="s">
         <v>179</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="19.5">
       <c r="A696" s="5" t="s">
         <v>99</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>5704</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="19.5">
       <c r="A697" s="5" t="s">
         <v>205</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="19.5">
       <c r="A698" s="5" t="s">
         <v>206</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="19.5">
       <c r="A699" s="5" t="s">
         <v>180</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="19.5">
       <c r="A700" s="5" t="s">
         <v>100</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="19.5">
       <c r="A701" s="5" t="s">
         <v>207</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="19.5">
       <c r="A702" s="5" t="s">
         <v>210</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="19.5">
       <c r="A703" s="5" t="s">
         <v>132</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="19.5">
       <c r="A704" s="5" t="s">
         <v>133</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="19.5">
       <c r="A705" s="5" t="s">
         <v>134</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="19.5">
       <c r="A706" s="5" t="s">
         <v>135</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="19.5">
       <c r="A707" s="5" t="s">
         <v>137</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="19.5">
       <c r="A708" s="5" t="s">
         <v>138</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="19.5">
       <c r="A709" s="5" t="s">
         <v>139</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="19.5">
       <c r="A710" s="5" t="s">
         <v>140</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="19.5">
       <c r="A711" s="5" t="s">
         <v>141</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="19.5">
       <c r="A712" s="5" t="s">
         <v>142</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="19.5">
       <c r="A713" s="5" t="s">
         <v>143</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="19.5">
       <c r="A714" s="5" t="s">
         <v>144</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="19.5">
       <c r="A715" s="5" t="s">
         <v>146</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="19.5">
       <c r="A716" s="5" t="s">
         <v>147</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="19.5">
       <c r="A717" s="5" t="s">
         <v>148</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="19.5">
       <c r="A718" s="5" t="s">
         <v>149</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="19.5">
       <c r="A719" s="5" t="s">
         <v>151</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="19.5">
       <c r="A720" s="5" t="s">
         <v>152</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="19.5">
       <c r="A721" s="5" t="s">
         <v>153</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="19.5">
       <c r="A722" s="5" t="s">
         <v>195</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="19.5">
       <c r="A723" s="5" t="s">
         <v>154</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="19.5">
       <c r="A724" s="5" t="s">
         <v>155</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="19.5">
       <c r="A725" s="5" t="s">
         <v>47</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="19.5">
       <c r="A726" s="5" t="s">
         <v>48</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="19.5">
       <c r="A727" s="5" t="s">
         <v>49</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="19.5">
       <c r="A728" s="5" t="s">
         <v>50</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>628</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="19.5">
       <c r="A729" s="5" t="s">
         <v>51</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="19.5">
       <c r="A730" s="5" t="s">
         <v>52</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="19.5">
       <c r="A731" s="5" t="s">
         <v>53</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="19.5">
       <c r="A732" s="5" t="s">
         <v>54</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="19.5">
       <c r="A733" s="5" t="s">
         <v>55</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>912</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="19.5">
       <c r="A734" s="5" t="s">
         <v>56</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="19.5">
       <c r="A735" s="5" t="s">
         <v>57</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="19.5">
       <c r="A736" s="5" t="s">
         <v>58</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>792</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="19.5">
       <c r="A737" s="5" t="s">
         <v>59</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="19.5">
       <c r="A738" s="5" t="s">
         <v>60</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="19.5">
       <c r="A739" s="5" t="s">
         <v>61</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="19.5">
       <c r="A740" s="5" t="s">
         <v>62</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>592</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="19.5">
       <c r="A741" s="5" t="s">
         <v>63</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="19.5">
       <c r="A742" s="5" t="s">
         <v>64</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="19.5">
       <c r="A743" s="5" t="s">
         <v>65</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>760</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="19.5">
       <c r="A744" s="5" t="s">
         <v>66</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="19.5">
       <c r="A745" s="5" t="s">
         <v>67</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="19.5">
       <c r="A746" s="5" t="s">
         <v>68</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="19.5">
       <c r="A747" s="5" t="s">
         <v>69</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="19.5">
       <c r="A748" s="5" t="s">
         <v>70</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>928</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="19.5">
       <c r="A749" s="5" t="s">
         <v>71</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>832</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="19.5">
       <c r="A750" s="5" t="s">
         <v>72</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="19.5">
       <c r="A751" s="5" t="s">
         <v>73</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="19.5">
       <c r="A752" s="5" t="s">
         <v>74</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="19.5">
       <c r="A753" s="5" t="s">
         <v>75</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="19.5">
       <c r="A754" s="5" t="s">
         <v>76</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="19.5">
       <c r="A755" s="5" t="s">
         <v>77</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="19.5">
       <c r="A756" s="5" t="s">
         <v>78</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="19.5">
       <c r="A757" s="5" t="s">
         <v>79</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>892</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="19.5">
       <c r="A758" s="5" t="s">
         <v>80</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="19.5">
       <c r="A759" s="5" t="s">
         <v>81</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="19.5">
       <c r="A760" s="5" t="s">
         <v>82</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="19.5">
       <c r="A761" s="5" t="s">
         <v>83</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="19.5">
       <c r="A762" s="5" t="s">
         <v>84</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>868</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="19.5">
       <c r="A763" s="5" t="s">
         <v>85</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>716</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="19.5">
       <c r="A764" s="5" t="s">
         <v>86</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>472</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="19.5">
       <c r="A765" s="5" t="s">
         <v>87</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="19.5">
       <c r="A766" s="5" t="s">
         <v>98</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="19.5">
       <c r="A767" s="5" t="s">
         <v>175</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="19.5">
       <c r="A768" s="5" t="s">
         <v>201</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>724</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="19.5">
       <c r="A769" s="5" t="s">
         <v>176</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>980</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="19.5">
       <c r="A770" s="5" t="s">
         <v>6</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="19.5">
       <c r="A771" s="5" t="s">
         <v>177</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>988</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="19.5">
       <c r="A772" s="5" t="s">
         <v>7</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="19.5">
       <c r="A773" s="5" t="s">
         <v>178</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="19.5">
       <c r="A774" s="5" t="s">
         <v>179</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="19.5">
       <c r="A775" s="5" t="s">
         <v>99</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="19.5">
       <c r="A776" s="5" t="s">
         <v>180</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="19.5">
       <c r="A777" s="5" t="s">
         <v>197</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="19.5">
       <c r="A778" s="5" t="s">
         <v>198</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="19.5">
       <c r="A779" s="5" t="s">
         <v>100</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="19.5">
       <c r="A780" s="5" t="s">
         <v>211</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>8076</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="19.5">
       <c r="A781" s="5" t="s">
         <v>212</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>8076</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="19.5">
       <c r="A782" s="5" t="s">
         <v>166</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="19.5">
       <c r="A783" s="5" t="s">
         <v>167</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="19.5">
       <c r="A784" s="5" t="s">
         <v>168</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="19.5">
       <c r="A785" s="5" t="s">
         <v>169</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="19.5">
       <c r="A786" s="5" t="s">
         <v>91</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="19.5">
       <c r="A787" s="5" t="s">
         <v>208</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="19.5">
       <c r="A788" s="5" t="s">
         <v>92</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>5380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="19.5">
       <c r="A789" s="5" t="s">
         <v>93</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="19.5">
       <c r="A790" s="5" t="s">
         <v>209</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="19.5">
       <c r="A791" s="5" t="s">
         <v>94</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="19.5">
       <c r="A792" s="5" t="s">
         <v>171</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="19.5">
       <c r="A793" s="5" t="s">
         <v>95</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="19.5">
       <c r="A794" s="5" t="s">
         <v>96</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="19.5">
       <c r="A795" s="5" t="s">
         <v>97</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="19.5">
       <c r="A796" s="5" t="s">
         <v>213</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>20812</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="19.5">
       <c r="A797" s="5" t="s">
         <v>214</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>14820</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="19.5">
       <c r="A798" s="5" t="s">
         <v>47</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="19.5">
       <c r="A799" s="5" t="s">
         <v>48</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="19.5">
       <c r="A800" s="5" t="s">
         <v>49</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="19.5">
       <c r="A801" s="5" t="s">
         <v>158</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="19.5">
       <c r="A802" s="5" t="s">
         <v>50</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>944</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="19.5">
       <c r="A803" s="5" t="s">
         <v>159</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="19.5">
       <c r="A804" s="5" t="s">
         <v>51</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="19.5">
       <c r="A805" s="5" t="s">
         <v>52</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="19.5">
       <c r="A806" s="5" t="s">
         <v>53</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="19.5">
       <c r="A807" s="5" t="s">
         <v>54</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="19.5">
       <c r="A808" s="5" t="s">
         <v>55</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="19.5">
       <c r="A809" s="5" t="s">
         <v>56</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="19.5">
       <c r="A810" s="5" t="s">
         <v>57</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="19.5">
       <c r="A811" s="5" t="s">
         <v>58</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="19.5">
       <c r="A812" s="5" t="s">
         <v>59</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>812</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="19.5">
       <c r="A813" s="5" t="s">
         <v>60</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="19.5">
       <c r="A814" s="5" t="s">
         <v>61</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="19.5">
       <c r="A815" s="5" t="s">
         <v>62</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>888</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="19.5">
       <c r="A816" s="5" t="s">
         <v>63</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="19.5">
       <c r="A817" s="5" t="s">
         <v>64</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="19.5">
       <c r="A818" s="5" t="s">
         <v>65</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="19.5">
       <c r="A819" s="5" t="s">
         <v>66</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="19.5">
       <c r="A820" s="5" t="s">
         <v>67</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="19.5">
       <c r="A821" s="5" t="s">
         <v>68</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="19.5">
       <c r="A822" s="5" t="s">
         <v>69</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="19.5">
       <c r="A823" s="5" t="s">
         <v>70</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="19.5">
       <c r="A824" s="5" t="s">
         <v>71</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="19.5">
       <c r="A825" s="5" t="s">
         <v>72</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="19.5">
       <c r="A826" s="5" t="s">
         <v>73</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="19.5">
       <c r="A827" s="5" t="s">
         <v>74</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>996</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="19.5">
       <c r="A828" s="5" t="s">
         <v>75</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="19.5">
       <c r="A829" s="5" t="s">
         <v>76</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="19.5">
       <c r="A830" s="5" t="s">
         <v>77</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="19.5">
       <c r="A831" s="5" t="s">
         <v>78</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="19.5">
       <c r="A832" s="5" t="s">
         <v>79</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="19.5">
       <c r="A833" s="5" t="s">
         <v>80</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="19.5">
       <c r="A834" s="5" t="s">
         <v>81</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="19.5">
       <c r="A835" s="5" t="s">
         <v>82</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="19.5">
       <c r="A836" s="5" t="s">
         <v>83</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="19.5">
       <c r="A837" s="5" t="s">
         <v>84</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="19.5">
       <c r="A838" s="5" t="s">
         <v>85</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="19.5">
       <c r="A839" s="5" t="s">
         <v>86</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>708</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="19.5">
       <c r="A840" s="5" t="s">
         <v>87</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="19.5">
       <c r="A841" s="5" t="s">
         <v>47</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="19.5">
       <c r="A842" s="5" t="s">
         <v>48</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="19.5">
       <c r="A843" s="5" t="s">
         <v>49</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="19.5">
       <c r="A844" s="5" t="s">
         <v>158</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="19.5">
       <c r="A845" s="5" t="s">
         <v>50</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>944</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="19.5">
       <c r="A846" s="5" t="s">
         <v>159</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="19.5">
       <c r="A847" s="5" t="s">
         <v>51</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="19.5">
       <c r="A848" s="5" t="s">
         <v>52</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="19.5">
       <c r="A849" s="5" t="s">
         <v>53</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="19.5">
       <c r="A850" s="5" t="s">
         <v>54</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="19.5">
       <c r="A851" s="5" t="s">
         <v>55</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="19.5">
       <c r="A852" s="5" t="s">
         <v>56</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="19.5">
       <c r="A853" s="5" t="s">
         <v>57</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="19.5">
       <c r="A854" s="5" t="s">
         <v>58</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="19.5">
       <c r="A855" s="5" t="s">
         <v>59</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>812</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="19.5">
       <c r="A856" s="5" t="s">
         <v>60</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="19.5">
       <c r="A857" s="5" t="s">
         <v>61</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="19.5">
       <c r="A858" s="5" t="s">
         <v>62</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>888</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="19.5">
       <c r="A859" s="5" t="s">
         <v>63</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="19.5">
       <c r="A860" s="5" t="s">
         <v>64</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="19.5">
       <c r="A861" s="5" t="s">
         <v>65</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="19.5">
       <c r="A862" s="5" t="s">
         <v>66</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="19.5">
       <c r="A863" s="5" t="s">
         <v>67</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="19.5">
       <c r="A864" s="5" t="s">
         <v>68</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="19.5">
       <c r="A865" s="5" t="s">
         <v>69</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="19.5">
       <c r="A866" s="5" t="s">
         <v>70</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="19.5">
       <c r="A867" s="5" t="s">
         <v>71</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="19.5">
       <c r="A868" s="5" t="s">
         <v>72</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="19.5">
       <c r="A869" s="5" t="s">
         <v>73</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="19.5">
       <c r="A870" s="5" t="s">
         <v>74</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>996</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="19.5">
       <c r="A871" s="5" t="s">
         <v>75</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="19.5">
       <c r="A872" s="5" t="s">
         <v>76</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="19.5">
       <c r="A873" s="5" t="s">
         <v>77</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="19.5">
       <c r="A874" s="5" t="s">
         <v>78</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="19.5">
       <c r="A875" s="5" t="s">
         <v>79</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="19.5">
       <c r="A876" s="5" t="s">
         <v>80</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="19.5">
       <c r="A877" s="5" t="s">
         <v>81</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="19.5">
       <c r="A878" s="5" t="s">
         <v>82</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="19.5">
       <c r="A879" s="5" t="s">
         <v>83</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="19.5">
       <c r="A880" s="5" t="s">
         <v>84</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="19.5">
       <c r="A881" s="5" t="s">
         <v>85</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="19.5">
       <c r="A882" s="5" t="s">
         <v>86</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>708</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="19.5">
       <c r="A883" s="5" t="s">
         <v>87</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="19.5">
       <c r="A884" s="5" t="s">
         <v>88</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="19.5">
       <c r="A885" s="5" t="s">
         <v>89</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="19.5">
       <c r="A886" s="5" t="s">
         <v>132</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="19.5">
       <c r="A887" s="5" t="s">
         <v>187</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="19.5">
       <c r="A888" s="5" t="s">
         <v>188</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="19.5">
       <c r="A889" s="5" t="s">
         <v>189</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="19.5">
       <c r="A890" s="5" t="s">
         <v>192</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="19.5">
       <c r="A891" s="5" t="s">
         <v>193</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="19.5">
       <c r="A892" s="5" t="s">
         <v>154</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="19.5">
       <c r="A893" s="5" t="s">
         <v>156</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="19.5">
       <c r="A894" s="5" t="s">
         <v>196</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="19.5">
       <c r="A895" s="5" t="s">
         <v>157</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="19.5">
       <c r="A896" s="5" t="s">
         <v>10</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="19.5">
       <c r="A897" s="5" t="s">
         <v>166</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="19.5">
       <c r="A898" s="5" t="s">
         <v>168</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="19.5">
       <c r="A899" s="5" t="s">
         <v>91</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="19.5">
       <c r="A900" s="5" t="s">
         <v>92</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="19.5">
       <c r="A901" s="5" t="s">
         <v>93</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="19.5">
       <c r="A902" s="5" t="s">
         <v>94</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="19.5">
       <c r="A903" s="5" t="s">
         <v>171</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="19.5">
       <c r="A904" s="5" t="s">
         <v>95</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="19.5">
       <c r="A905" s="5" t="s">
         <v>96</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="19.5">
       <c r="A906" s="5" t="s">
         <v>97</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="19.5">
       <c r="A907" s="5" t="s">
         <v>91</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>904</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="19.5">
       <c r="A908" s="5" t="s">
         <v>208</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>776</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="19.5">
       <c r="A909" s="5" t="s">
         <v>92</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="19.5">
       <c r="A910" s="5" t="s">
         <v>93</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>568</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="19.5">
       <c r="A911" s="5" t="s">
         <v>209</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="19.5">
       <c r="A912" s="5" t="s">
         <v>94</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="19.5">
       <c r="A913" s="5" t="s">
         <v>171</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="19.5">
       <c r="A914" s="5" t="s">
         <v>95</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="19.5">
       <c r="A915" s="5" t="s">
         <v>96</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="19.5">
       <c r="A916" s="5" t="s">
         <v>97</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="19.5">
       <c r="A917" s="5" t="s">
         <v>14</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>726</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="19.5">
       <c r="A918" s="5" t="s">
         <v>29</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="19.5">
       <c r="A919" s="5" t="s">
         <v>15</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="19.5">
       <c r="A920" s="5" t="s">
         <v>16</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>942</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="19.5">
       <c r="A921" s="5" t="s">
         <v>30</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="19.5">
       <c r="A922" s="5" t="s">
         <v>31</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>822</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="19.5">
       <c r="A923" s="5" t="s">
         <v>17</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>4776</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="19.5">
       <c r="A924" s="5" t="s">
         <v>42</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="19.5">
       <c r="A925" s="5" t="s">
         <v>33</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="19.5">
       <c r="A926" s="5" t="s">
         <v>34</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>996</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="19.5">
       <c r="A927" s="5" t="s">
         <v>18</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>348</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="19.5">
       <c r="A928" s="5" t="s">
         <v>19</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="19.5">
       <c r="A929" s="5" t="s">
         <v>20</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="19.5">
       <c r="A930" s="5" t="s">
         <v>35</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="19.5">
       <c r="A931" s="5" t="s">
         <v>36</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="19.5">
       <c r="A932" s="5" t="s">
         <v>21</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="19.5">
       <c r="A933" s="5" t="s">
         <v>22</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>4782</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="19.5">
       <c r="A934" s="5" t="s">
         <v>199</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="19.5">
       <c r="A935" s="5" t="s">
         <v>45</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>3546</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="19.5">
       <c r="A936" s="5" t="s">
         <v>38</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="19.5">
       <c r="A937" s="5" t="s">
         <v>23</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="19.5">
       <c r="A938" s="5" t="s">
         <v>39</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>9336</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="19.5">
       <c r="A939" s="5" t="s">
         <v>24</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="19.5">
       <c r="A940" s="5" t="s">
         <v>40</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="19.5">
       <c r="A941" s="5" t="s">
         <v>211</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>12424</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="19.5">
       <c r="A942" s="5" t="s">
         <v>212</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>12424</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="19.5">
       <c r="A943" s="5" t="s">
         <v>47</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="19.5">
       <c r="A944" s="5" t="s">
         <v>48</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="19.5">
       <c r="A945" s="5" t="s">
         <v>49</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="19.5">
       <c r="A946" s="5" t="s">
         <v>158</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="19.5">
       <c r="A947" s="5" t="s">
         <v>50</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="19.5">
       <c r="A948" s="5" t="s">
         <v>159</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>768</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="19.5">
       <c r="A949" s="5" t="s">
         <v>51</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="19.5">
       <c r="A950" s="5" t="s">
         <v>52</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="19.5">
       <c r="A951" s="5" t="s">
         <v>53</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="19.5">
       <c r="A952" s="5" t="s">
         <v>54</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="19.5">
       <c r="A953" s="5" t="s">
         <v>55</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="19.5">
       <c r="A954" s="5" t="s">
         <v>56</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="19.5">
       <c r="A955" s="5" t="s">
         <v>57</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="19.5">
       <c r="A956" s="5" t="s">
         <v>58</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="19.5">
       <c r="A957" s="5" t="s">
         <v>59</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="19.5">
       <c r="A958" s="5" t="s">
         <v>60</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="19.5">
       <c r="A959" s="5" t="s">
         <v>61</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="19.5">
       <c r="A960" s="5" t="s">
         <v>62</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="19.5">
       <c r="A961" s="5" t="s">
         <v>63</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="19.5">
       <c r="A962" s="5" t="s">
         <v>64</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="19.5">
       <c r="A963" s="5" t="s">
         <v>65</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="19.5">
       <c r="A964" s="5" t="s">
         <v>66</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="19.5">
       <c r="A965" s="5" t="s">
         <v>67</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="19.5">
       <c r="A966" s="5" t="s">
         <v>68</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>768</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="19.5">
       <c r="A967" s="5" t="s">
         <v>69</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="19.5">
       <c r="A968" s="5" t="s">
         <v>70</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="19.5">
       <c r="A969" s="5" t="s">
         <v>71</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="19.5">
       <c r="A970" s="5" t="s">
         <v>72</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="19.5">
       <c r="A971" s="5" t="s">
         <v>73</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="19.5">
       <c r="A972" s="5" t="s">
         <v>74</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="19.5">
       <c r="A973" s="5" t="s">
         <v>75</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>768</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="19.5">
       <c r="A974" s="5" t="s">
         <v>76</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="19.5">
       <c r="A975" s="5" t="s">
         <v>77</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="19.5">
       <c r="A976" s="5" t="s">
         <v>78</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="19.5">
       <c r="A977" s="5" t="s">
         <v>79</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="19.5">
       <c r="A978" s="5" t="s">
         <v>80</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="19.5">
       <c r="A979" s="5" t="s">
         <v>81</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="19.5">
       <c r="A980" s="5" t="s">
         <v>82</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="19.5">
       <c r="A981" s="5" t="s">
         <v>83</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="19.5">
       <c r="A982" s="5" t="s">
         <v>84</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="19.5">
       <c r="A983" s="5" t="s">
         <v>85</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="19.5">
       <c r="A984" s="5" t="s">
         <v>86</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>944</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="19.5">
       <c r="A985" s="5" t="s">
         <v>87</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="19.5">
       <c r="A986" s="5" t="s">
         <v>9</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>9108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="19.5">
       <c r="A987" s="5" t="s">
         <v>10</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>8644</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="19.5">
       <c r="A988" s="5" t="s">
         <v>11</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>12220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="19.5">
       <c r="A989" s="5" t="s">
         <v>12</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>12660</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="19.5">
       <c r="A990" s="5" t="s">
         <v>13</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="19.5">
       <c r="A991" s="5" t="s">
         <v>160</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>768</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="19.5">
       <c r="A992" s="5" t="s">
         <v>215</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="19.5">
       <c r="A993" s="5" t="s">
         <v>161</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="19.5">
       <c r="A994" s="5" t="s">
         <v>162</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>904</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="19.5">
       <c r="A995" s="5" t="s">
         <v>163</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="19.5">
       <c r="A996" s="5" t="s">
         <v>164</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>980</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="19.5">
       <c r="A997" s="5" t="s">
         <v>166</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="19.5">
       <c r="A998" s="5" t="s">
         <v>167</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="999" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="999" customHeight="1" ht="19.5">
       <c r="A999" s="5" t="s">
         <v>168</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>5080</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="19.5">
       <c r="A1000" s="5" t="s">
         <v>169</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1001" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1001" customHeight="1" ht="19.5">
       <c r="A1001" s="5" t="s">
         <v>213</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>9940</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1002" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1002" customHeight="1" ht="19.5">
       <c r="A1002" s="5" t="s">
         <v>214</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1003" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1003" customHeight="1" ht="19.5">
       <c r="A1003" s="5" t="s">
         <v>91</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1004" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1004" customHeight="1" ht="19.5">
       <c r="A1004" s="5" t="s">
         <v>208</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1005" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1005" customHeight="1" ht="19.5">
       <c r="A1005" s="5" t="s">
         <v>92</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1006" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1006" customHeight="1" ht="19.5">
       <c r="A1006" s="5" t="s">
         <v>93</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>680</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1007" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1007" customHeight="1" ht="19.5">
       <c r="A1007" s="5" t="s">
         <v>209</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1008" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1008" customHeight="1" ht="19.5">
       <c r="A1008" s="5" t="s">
         <v>94</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1009" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1009" customHeight="1" ht="19.5">
       <c r="A1009" s="5" t="s">
         <v>171</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1010" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1010" customHeight="1" ht="19.5">
       <c r="A1010" s="5" t="s">
         <v>95</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1011" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1011" customHeight="1" ht="19.5">
       <c r="A1011" s="5" t="s">
         <v>96</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1012" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1012" customHeight="1" ht="19.5">
       <c r="A1012" s="5" t="s">
         <v>97</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1013" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1013" customHeight="1" ht="19.5">
       <c r="A1013" s="5" t="s">
         <v>166</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1014" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1014" customHeight="1" ht="19.5">
       <c r="A1014" s="5" t="s">
         <v>167</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1015" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1015" customHeight="1" ht="19.5">
       <c r="A1015" s="5" t="s">
         <v>168</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>5080</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1016" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1016" customHeight="1" ht="19.5">
       <c r="A1016" s="5" t="s">
         <v>169</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1017" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1017" customHeight="1" ht="19.5">
       <c r="A1017" s="5" t="s">
         <v>14</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1018" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1018" customHeight="1" ht="19.5">
       <c r="A1018" s="5" t="s">
         <v>15</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1019" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1019" customHeight="1" ht="19.5">
       <c r="A1019" s="5" t="s">
         <v>16</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1020" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1020" customHeight="1" ht="19.5">
       <c r="A1020" s="5" t="s">
         <v>17</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1021" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1021" customHeight="1" ht="19.5">
       <c r="A1021" s="5" t="s">
         <v>18</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1022" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1022" customHeight="1" ht="19.5">
       <c r="A1022" s="5" t="s">
         <v>19</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1023" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1023" customHeight="1" ht="19.5">
       <c r="A1023" s="5" t="s">
         <v>20</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1024" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1024" customHeight="1" ht="19.5">
       <c r="A1024" s="5" t="s">
         <v>21</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>888</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1025" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1025" customHeight="1" ht="19.5">
       <c r="A1025" s="5" t="s">
         <v>22</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>834</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1026" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1026" customHeight="1" ht="19.5">
       <c r="A1026" s="5" t="s">
         <v>23</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1027" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1027" customHeight="1" ht="19.5">
       <c r="A1027" s="5" t="s">
         <v>24</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1028" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1028" customHeight="1" ht="19.5">
       <c r="A1028" s="5" t="s">
         <v>91</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1029" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1029" customHeight="1" ht="19.5">
       <c r="A1029" s="5" t="s">
         <v>92</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1030" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1030" customHeight="1" ht="19.5">
       <c r="A1030" s="5" t="s">
         <v>93</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1031" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1031" customHeight="1" ht="19.5">
       <c r="A1031" s="5" t="s">
         <v>209</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1032" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1032" customHeight="1" ht="19.5">
       <c r="A1032" s="5" t="s">
         <v>94</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1033" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1033" customHeight="1" ht="19.5">
       <c r="A1033" s="5" t="s">
         <v>96</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1034" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1034" customHeight="1" ht="19.5">
       <c r="A1034" s="5" t="s">
         <v>43</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1035" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1035" customHeight="1" ht="19.5">
       <c r="A1035" s="5" t="s">
         <v>52</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1036" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1036" customHeight="1" ht="19.5">
       <c r="A1036" s="5" t="s">
         <v>53</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1037" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1037" customHeight="1" ht="19.5">
       <c r="A1037" s="5" t="s">
         <v>66</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1038" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1038" customHeight="1" ht="19.5">
       <c r="A1038" s="5" t="s">
         <v>77</v>
       </c>
@@ -12606,7 +12606,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1039" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1039" customHeight="1" ht="19.5">
       <c r="A1039" s="5" t="s">
         <v>82</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="1040" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1040" customHeight="1" ht="19.5">
       <c r="A1040" s="8" t="s">
         <v>83</v>
       </c>
